--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -7,16 +7,20 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="采购订单" sheetId="1" r:id="rId1"/>
-    <sheet name="采购入库" sheetId="4" r:id="rId2"/>
-    <sheet name="采购退货出库" sheetId="5" r:id="rId3"/>
+    <sheet name="列表" sheetId="8" r:id="rId1"/>
+    <sheet name="采购订单" sheetId="1" r:id="rId2"/>
+    <sheet name="采购入库" sheetId="4" r:id="rId3"/>
+    <sheet name="采购退货出库" sheetId="5" r:id="rId4"/>
+    <sheet name="销售订单" sheetId="6" r:id="rId5"/>
+    <sheet name="销售出库" sheetId="7" r:id="rId6"/>
+    <sheet name="销售退货入库" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,12 +214,144 @@
     <t>/PSI/web/Application/Home/DAO/PRBillDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>销售订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/SaleOrder/SOMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/SaleOrder/SOEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Sale/soIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/SaleController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/SOBillService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑销售订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/WSMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/WSEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/WSExportForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/WSImportForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Sale/wsIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/WSBillService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/WSBillDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/SRMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/SREditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Sale/SRSelectWSBillForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑销售退货入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Sale/srIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/SRBillService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/SRBillDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +394,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,12 +502,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,36 +542,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,110 +876,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="20"/>
+    <col min="3" max="3" width="87.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row r="2" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
+      <c r="C2" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B6" s="19">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C7" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" location="采购订单!A1" display="采购订单"/>
+    <hyperlink ref="C3" location="采购入库!A1" display="采购入库"/>
+    <hyperlink ref="C4" location="采购退货出库!A1" display="采购退货出库"/>
+    <hyperlink ref="C5" location="销售订单!A1" display="销售订单"/>
+    <hyperlink ref="C6" location="销售出库!A1" display="销售出库"/>
+    <hyperlink ref="C7" location="销售退货入库!A1" display="销售退货入库"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -840,24 +967,135 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -914,10 +1152,10 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
@@ -935,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -951,24 +1189,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
       <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1035,12 +1273,375 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -14,13 +14,14 @@
     <sheet name="销售订单" sheetId="6" r:id="rId5"/>
     <sheet name="销售出库" sheetId="7" r:id="rId6"/>
     <sheet name="销售退货入库" sheetId="9" r:id="rId7"/>
+    <sheet name="库存账查询" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +345,34 @@
   </si>
   <si>
     <t>销售退货入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存账查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存账查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Inventory/InvQueryMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Inventory/inventoryQuery.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/InventoryController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/InventoryService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +540,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +580,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -568,18 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,65 +908,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="20"/>
+    <col min="2" max="2" width="9" style="15"/>
     <col min="3" max="3" width="87.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B2" s="19">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B5" s="19">
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B6" s="19">
+      <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B7" s="19">
+      <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="8" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B9" s="14">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B10" s="14">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B12" s="14">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -945,6 +1015,7 @@
     <hyperlink ref="C5" location="销售订单!A1" display="销售订单"/>
     <hyperlink ref="C6" location="销售出库!A1" display="销售出库"/>
     <hyperlink ref="C7" location="销售退货入库!A1" display="销售退货入库"/>
+    <hyperlink ref="C8" location="库存账查询!A1" display="库存账查询"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -967,20 +1038,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1078,20 +1149,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1189,20 +1260,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1310,20 +1381,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1421,20 +1492,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1552,20 +1623,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1644,6 +1715,105 @@
         <v>67</v>
       </c>
       <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -15,13 +15,15 @@
     <sheet name="销售出库" sheetId="7" r:id="rId6"/>
     <sheet name="销售退货入库" sheetId="9" r:id="rId7"/>
     <sheet name="库存账查询" sheetId="10" r:id="rId8"/>
+    <sheet name="库存建账" sheetId="11" r:id="rId9"/>
+    <sheet name="库间调拨" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存账查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/PSI/web/Public/Scripts/PSI/Inventory/InvQueryMainForm.js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,7 +370,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
+    <t>库存建账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Inventory/InitInventoryMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Inventory/InitInventoryEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Inventory/initIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/InitInventoryService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/InitInventoryController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存建账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存建账主界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建账数据录入界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早期代码，所以无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存账查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早期代码，所以无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库间调拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库间调拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/InvTransfer/InvTransferMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/InvTransfer/ITEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库间调拨主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑调拨单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/InvTransfer/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/InvTransferController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/ITBillService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/ITBillDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +628,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -530,6 +717,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,7 +749,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,21 +789,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -612,6 +821,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,93 +1130,99 @@
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="15"/>
+    <col min="2" max="2" width="9" style="14"/>
     <col min="3" max="3" width="87.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>11</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>12</v>
       </c>
       <c r="C13" s="2"/>
@@ -1016,7 +1237,120 @@
     <hyperlink ref="C6" location="销售出库!A1" display="销售出库"/>
     <hyperlink ref="C7" location="销售退货入库!A1" display="销售退货入库"/>
     <hyperlink ref="C8" location="库存账查询!A1" display="库存账查询"/>
+    <hyperlink ref="C9" location="库存建账!A1" display="库存建账"/>
+    <hyperlink ref="C10" location="库间调拨!A1" display="库间调拨"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1745,24 +2079,24 @@
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
       <c r="B2" s="22" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
-        <v>70</v>
+      <c r="D2" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
       <c r="B3" s="20" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -1771,9 +2105,9 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="8" t="s">
@@ -1781,7 +2115,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1791,7 +2125,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1801,7 +2135,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1810,10 +2144,125 @@
         <v>4</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -17,13 +17,15 @@
     <sheet name="库存账查询" sheetId="10" r:id="rId8"/>
     <sheet name="库存建账" sheetId="11" r:id="rId9"/>
     <sheet name="库间调拨" sheetId="12" r:id="rId10"/>
+    <sheet name="库存盘点" sheetId="13" r:id="rId11"/>
+    <sheet name="应收账款管理" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +562,142 @@
   </si>
   <si>
     <t>/PSI/web/Application/Home/DAO/ITBillDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/InvCheck/InvCheckMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/InvCheck/ICEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存盘点主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑盘点单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/InvCheck/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/InvCheckController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/ICBillService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/ICBillDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金收支查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格体系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改我的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/RvMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/RvRecordEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录收款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/rvIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/FundsController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/ReceivablesService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/ReceivablesDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +887,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +942,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,12 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1211,7 +1352,7 @@
       <c r="B11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1219,13 +1360,137 @@
       <c r="B12" s="13">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="2:3" ht="24.95" customHeight="1">
       <c r="B13" s="13">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B14" s="13">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B15" s="13">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B17" s="13">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B18" s="13">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B19" s="13">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B20" s="13">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B22" s="13">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B23" s="13">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B24" s="13">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B25" s="13">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B27" s="13">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B28" s="13">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,6 +1504,8 @@
     <hyperlink ref="C8" location="库存账查询!A1" display="库存账查询"/>
     <hyperlink ref="C9" location="库存建账!A1" display="库存建账"/>
     <hyperlink ref="C10" location="库间调拨!A1" display="库间调拨"/>
+    <hyperlink ref="C11" location="库存盘点!A1" display="库存盘点"/>
+    <hyperlink ref="C12" location="应收账款管理!A1" display="应收账款管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1261,20 +1528,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1295,8 +1562,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
@@ -1341,6 +1608,228 @@
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1372,20 +1861,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1483,20 +1972,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1594,20 +2083,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1715,20 +2204,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1826,20 +2315,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1957,20 +2446,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2078,20 +2567,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2179,20 +2668,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2213,8 +2702,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -19,13 +19,15 @@
     <sheet name="库间调拨" sheetId="12" r:id="rId10"/>
     <sheet name="库存盘点" sheetId="13" r:id="rId11"/>
     <sheet name="应收账款管理" sheetId="14" r:id="rId12"/>
+    <sheet name="应付账款管理" sheetId="15" r:id="rId13"/>
+    <sheet name="现金收支查询" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +700,58 @@
   </si>
   <si>
     <t>应收账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PayMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PaymentEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/payIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/PayablesService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PayablesDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/CashMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/cashIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/CashService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金收支查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +941,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +1004,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1368,16 +1425,16 @@
       <c r="B13" s="13">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>110</v>
+      <c r="C13" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="24.95" customHeight="1">
       <c r="B14" s="13">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
+      <c r="C14" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1">
@@ -1506,6 +1563,8 @@
     <hyperlink ref="C10" location="库间调拨!A1" display="库间调拨"/>
     <hyperlink ref="C11" location="库存盘点!A1" display="库存盘点"/>
     <hyperlink ref="C12" location="应收账款管理!A1" display="应收账款管理"/>
+    <hyperlink ref="C13" location="应付账款管理!A1" display="应付账款管理"/>
+    <hyperlink ref="C14" location="现金收支查询!A1" display="现金收支查询"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1528,20 +1587,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1639,20 +1698,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -1750,20 +1809,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -1832,6 +1891,216 @@
         <v>134</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1861,20 +2130,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1972,20 +2241,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2083,20 +2352,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2204,20 +2473,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2315,20 +2584,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2446,20 +2715,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2567,20 +2836,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2668,20 +2937,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -21,13 +21,14 @@
     <sheet name="应收账款管理" sheetId="14" r:id="rId12"/>
     <sheet name="应付账款管理" sheetId="15" r:id="rId13"/>
     <sheet name="现金收支查询" sheetId="16" r:id="rId14"/>
+    <sheet name="预收款管理" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,6 +753,46 @@
   </si>
   <si>
     <t>现金收支查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PreReceivingMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/AddPreReceivingForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/ReturnPreReceivingForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收预收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退还预收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/prereceivingIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/PreReceivingService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PreReceivingDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +982,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,6 +1045,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1441,8 +1485,8 @@
       <c r="B15" s="13">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>112</v>
+      <c r="C15" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1">
@@ -1565,6 +1609,7 @@
     <hyperlink ref="C12" location="应收账款管理!A1" display="应收账款管理"/>
     <hyperlink ref="C13" location="应付账款管理!A1" display="应付账款管理"/>
     <hyperlink ref="C14" location="现金收支查询!A1" display="现金收支查询"/>
+    <hyperlink ref="C15" location="预收款管理!A1" display="预收款管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1587,20 +1632,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1698,20 +1743,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -1809,20 +1854,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -1920,20 +1965,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2031,20 +2076,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2101,6 +2146,127 @@
         <v>147</v>
       </c>
       <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2130,20 +2296,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2241,20 +2407,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2352,20 +2518,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2473,20 +2639,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2584,20 +2750,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2715,20 +2881,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2836,20 +3002,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2937,20 +3103,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -22,13 +22,14 @@
     <sheet name="应付账款管理" sheetId="15" r:id="rId13"/>
     <sheet name="现金收支查询" sheetId="16" r:id="rId14"/>
     <sheet name="预收款管理" sheetId="17" r:id="rId15"/>
+    <sheet name="预付款管理" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="169">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,187 +613,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格体系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改我的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/RvMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/RvRecordEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录收款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/rvIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/FundsController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/ReceivablesService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/ReceivablesDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PayMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PaymentEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/payIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/PayablesService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PayablesDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/CashMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/cashIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/CashService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金收支查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PreReceivingMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/AddPreReceivingForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/ReturnPreReceivingForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收预收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退还预收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/prereceivingIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/PreReceivingService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PreReceivingDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/PrePaymentMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/AddPrePaymentForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Funds/ReturnPrePaymentForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Funds/prepaymentIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/PrePaymentService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PrePaymentDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预付款管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预付款管理主界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付供应商预付款</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供应商退回采购预付款</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预付款管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品计量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格体系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改我的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/RvMainForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/RvRecordEditForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款管理主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录收款记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/View/Funds/rvIndex.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/Controller/FundsController.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/Service/ReceivablesService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/DAO/ReceivablesDAO.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/PayMainForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/PaymentEditForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付账款主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/View/Funds/payIndex.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/Service/PayablesService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/DAO/PayablesDAO.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付账款管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/CashMainForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/View/Funds/cashIndex.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/Service/CashService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金收支查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/PreReceivingMainForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/AddPreReceivingForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Public/Scripts/PSI/Funds/ReturnPreReceivingForm.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预收款管理主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收预收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退还预收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/View/Funds/prereceivingIndex.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/Service/PreReceivingService.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/PSI/web/Application/Home/DAO/PreReceivingDAO.class.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预收款管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1462,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="24.95" customHeight="1">
@@ -1470,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="24.95" customHeight="1">
@@ -1478,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1">
@@ -1486,15 +1563,15 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1">
       <c r="B16" s="13">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>113</v>
+      <c r="C16" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24.95" customHeight="1">
@@ -1502,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="24.95" customHeight="1">
@@ -1510,7 +1587,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="24.95" customHeight="1">
@@ -1518,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="24.95" customHeight="1">
@@ -1526,7 +1603,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="24.95" customHeight="1">
@@ -1534,7 +1611,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="24.95" customHeight="1">
@@ -1542,7 +1619,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="24.95" customHeight="1">
@@ -1550,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="24.95" customHeight="1">
@@ -1558,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="24.95" customHeight="1">
@@ -1566,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="24.95" customHeight="1">
@@ -1574,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="24.95" customHeight="1">
@@ -1582,7 +1659,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="24.95" customHeight="1">
@@ -1590,7 +1667,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1610,6 +1687,7 @@
     <hyperlink ref="C13" location="应付账款管理!A1" display="应付账款管理"/>
     <hyperlink ref="C14" location="现金收支查询!A1" display="现金收支查询"/>
     <hyperlink ref="C15" location="预收款管理!A1" display="预收款管理"/>
+    <hyperlink ref="C16" location="预付款管理!A1" display="预付款管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1859,7 +1937,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -1881,20 +1959,20 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -1903,7 +1981,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1913,7 +1991,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1923,7 +2001,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1933,7 +2011,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1992,20 +2070,20 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2014,7 +2092,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2024,7 +2102,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2034,7 +2112,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2044,7 +2122,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2103,7 +2181,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2113,7 +2191,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2123,7 +2201,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2133,7 +2211,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2143,7 +2221,7 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2179,7 +2257,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="24"/>
@@ -2202,30 +2280,30 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2234,7 +2312,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2244,7 +2322,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2254,7 +2332,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2263,8 +2341,129 @@
         <v>4</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="3" t="s">
-        <v>157</v>
+      <c r="D10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -23,13 +23,14 @@
     <sheet name="现金收支查询" sheetId="16" r:id="rId14"/>
     <sheet name="预收款管理" sheetId="17" r:id="rId15"/>
     <sheet name="预付款管理" sheetId="18" r:id="rId16"/>
+    <sheet name="客户资料" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,6 +871,62 @@
   </si>
   <si>
     <t>预付款管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Customer/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Customer/CategoryEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Customer/CustomerEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Customer/CustomerImportForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Customer/CustomerField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑客户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑客户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入客户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户字段，会被其他业务单据引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Customer/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/CustomerController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/CustomerService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/CustomerDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1116,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,7 +1638,7 @@
       <c r="B17" s="13">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1688,6 +1748,7 @@
     <hyperlink ref="C14" location="现金收支查询!A1" display="现金收支查询"/>
     <hyperlink ref="C15" location="预收款管理!A1" display="预收款管理"/>
     <hyperlink ref="C16" location="预付款管理!A1" display="预付款管理"/>
+    <hyperlink ref="C17" location="客户资料!A1" display="客户资料"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1710,20 +1771,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1821,20 +1882,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -1932,20 +1993,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2043,20 +2104,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2154,20 +2215,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2253,20 +2314,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2374,20 +2435,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2466,6 +2527,147 @@
         <v>163</v>
       </c>
       <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2495,20 +2697,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2606,20 +2808,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2717,20 +2919,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2838,20 +3040,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2949,20 +3151,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3080,20 +3282,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3201,20 +3403,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -3302,20 +3504,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -24,13 +24,14 @@
     <sheet name="预收款管理" sheetId="17" r:id="rId15"/>
     <sheet name="预付款管理" sheetId="18" r:id="rId16"/>
     <sheet name="客户资料" sheetId="19" r:id="rId17"/>
+    <sheet name="供应商档案" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="195">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,6 +928,54 @@
   </si>
   <si>
     <t>/PSI/web/Application/Home/DAO/CustomerDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Supplier/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Supplier/CategoryEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Supplier/SupplierEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Supplier/SupplierField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑供应商分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑供应商档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商字段，其他业务单据引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Supplier/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/SupplierController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/SupplierService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/SupplierDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1165,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1228,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1646,7 +1698,7 @@
       <c r="B18" s="13">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1749,6 +1801,7 @@
     <hyperlink ref="C15" location="预收款管理!A1" display="预收款管理"/>
     <hyperlink ref="C16" location="预付款管理!A1" display="预付款管理"/>
     <hyperlink ref="C17" location="客户资料!A1" display="客户资料"/>
+    <hyperlink ref="C18" location="供应商档案!A1" display="供应商档案"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1771,20 +1824,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1882,20 +1935,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -1993,20 +2046,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2104,20 +2157,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2215,20 +2268,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2314,20 +2367,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2435,20 +2488,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2556,20 +2609,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -2668,6 +2721,137 @@
         <v>182</v>
       </c>
       <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2697,20 +2881,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2808,20 +2992,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2919,20 +3103,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3040,20 +3224,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3151,20 +3335,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3282,20 +3466,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3403,20 +3587,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -3504,20 +3688,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -25,13 +25,14 @@
     <sheet name="预付款管理" sheetId="18" r:id="rId16"/>
     <sheet name="客户资料" sheetId="19" r:id="rId17"/>
     <sheet name="供应商档案" sheetId="20" r:id="rId18"/>
+    <sheet name="仓库" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="208">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -976,6 +973,62 @@
   </si>
   <si>
     <t>/PSI/web/Application/Home/DAO/SupplierDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Warehouse/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Warehouse/EditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Warehouse/EditDataOrgForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Warehouse/WarehouseField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改仓库数据域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库字段，其他业务单据引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Warehouse/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/WarehouseController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/WarehouseService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/WarehouseDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1218,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,6 +1281,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1651,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="24.95" customHeight="1">
@@ -1659,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="24.95" customHeight="1">
@@ -1667,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1">
@@ -1675,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1">
@@ -1683,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24.95" customHeight="1">
@@ -1706,8 +1762,8 @@
       <c r="B19" s="13">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>115</v>
+      <c r="C19" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="24.95" customHeight="1">
@@ -1715,7 +1771,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="24.95" customHeight="1">
@@ -1723,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="24.95" customHeight="1">
@@ -1731,7 +1787,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="24.95" customHeight="1">
@@ -1739,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="24.95" customHeight="1">
@@ -1747,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="24.95" customHeight="1">
@@ -1755,7 +1811,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="24.95" customHeight="1">
@@ -1763,7 +1819,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="24.95" customHeight="1">
@@ -1771,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="24.95" customHeight="1">
@@ -1779,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1802,6 +1858,7 @@
     <hyperlink ref="C16" location="预付款管理!A1" display="预付款管理"/>
     <hyperlink ref="C17" location="客户资料!A1" display="客户资料"/>
     <hyperlink ref="C18" location="供应商档案!A1" display="供应商档案"/>
+    <hyperlink ref="C19" location="仓库!A1" display="仓库"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1824,20 +1881,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1935,20 +1992,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2046,20 +2103,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2073,20 +2130,20 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2095,7 +2152,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2105,7 +2162,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2115,7 +2172,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2125,7 +2182,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2157,20 +2214,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2184,20 +2241,20 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2206,7 +2263,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2216,7 +2273,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2226,7 +2283,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2236,7 +2293,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2268,20 +2325,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2295,7 +2352,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2305,7 +2362,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2315,7 +2372,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2325,7 +2382,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2335,7 +2392,7 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2367,20 +2424,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2394,30 +2451,30 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2426,7 +2483,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2436,7 +2493,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2446,7 +2503,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2456,7 +2513,7 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2488,20 +2545,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2515,30 +2572,30 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2547,7 +2604,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2557,7 +2614,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2567,7 +2624,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2577,7 +2634,7 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2609,20 +2666,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -2636,50 +2693,50 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2688,7 +2745,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2698,7 +2755,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2708,7 +2765,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2718,7 +2775,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2750,20 +2807,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -2777,40 +2834,40 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2819,7 +2876,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2829,7 +2886,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2839,7 +2896,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2849,7 +2906,138 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>194</v>
+      </c>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2881,20 +3069,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2992,20 +3180,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3103,20 +3291,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3224,20 +3412,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3335,20 +3523,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3466,20 +3654,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3587,20 +3775,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -3688,20 +3876,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -26,13 +26,14 @@
     <sheet name="客户资料" sheetId="19" r:id="rId17"/>
     <sheet name="供应商档案" sheetId="20" r:id="rId18"/>
     <sheet name="仓库" sheetId="21" r:id="rId19"/>
+    <sheet name="商品" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="248">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,10 +625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品计量单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,6 +1026,377 @@
   </si>
   <si>
     <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/CategoryEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/SafetyInventoryEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsBOMEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsPriceSystemEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsBrandField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsCategoryField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsImportForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsParentCategoryField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsWithPurchasePriceField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/GoodsWithSalePriceField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/SubGoodsField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Goods/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/GoodsController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/GoodsService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/GoodsCategoryDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/GoodsDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/GoodsSiDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/GoodsBomDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品主界面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增或编辑商品分类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增或编辑商品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置商品安全库存</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置商品子商品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置商品价格体系中的具体价格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品品牌字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品分类字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入商品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品上级分类字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品字段，带有采购价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品字段，带有销售价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子商品字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品安全库存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品构成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DAO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,7 +1586,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1665,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1314,6 +1685,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1707,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="24.95" customHeight="1">
@@ -1715,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="24.95" customHeight="1">
@@ -1723,7 +2106,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="24.95" customHeight="1">
@@ -1731,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="24.95" customHeight="1">
@@ -1739,7 +2122,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24.95" customHeight="1">
@@ -1763,15 +2146,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="24.95" customHeight="1">
       <c r="B20" s="13">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>115</v>
+      <c r="C20" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="24.95" customHeight="1">
@@ -1779,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="24.95" customHeight="1">
@@ -1787,7 +2170,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="24.95" customHeight="1">
@@ -1795,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="24.95" customHeight="1">
@@ -1803,7 +2186,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="24.95" customHeight="1">
@@ -1811,7 +2194,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="24.95" customHeight="1">
@@ -1819,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="24.95" customHeight="1">
@@ -1827,7 +2210,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="24.95" customHeight="1">
@@ -1835,7 +2218,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1859,6 +2242,7 @@
     <hyperlink ref="C17" location="客户资料!A1" display="客户资料"/>
     <hyperlink ref="C18" location="供应商档案!A1" display="供应商档案"/>
     <hyperlink ref="C19" location="仓库!A1" display="仓库"/>
+    <hyperlink ref="C20" location="商品!A1" display="商品"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1881,20 +2265,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -1992,20 +2376,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2103,20 +2487,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2130,20 +2514,20 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2152,7 +2536,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2162,7 +2546,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2172,7 +2556,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2182,7 +2566,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2214,20 +2598,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2241,20 +2625,20 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2263,7 +2647,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2273,7 +2657,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2283,7 +2667,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2293,7 +2677,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2325,20 +2709,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2352,7 +2736,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2362,7 +2746,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2372,7 +2756,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2382,7 +2766,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2392,7 +2776,7 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2424,20 +2808,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2451,30 +2835,30 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2483,7 +2867,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2493,7 +2877,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2503,7 +2887,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2513,7 +2897,7 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2545,20 +2929,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2572,30 +2956,30 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2604,7 +2988,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2614,7 +2998,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2624,7 +3008,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2634,7 +3018,7 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2666,20 +3050,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -2693,50 +3077,50 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2745,7 +3129,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2755,7 +3139,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2765,7 +3149,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2775,7 +3159,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2807,20 +3191,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -2834,40 +3218,40 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -2876,7 +3260,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2886,7 +3270,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2896,7 +3280,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2906,7 +3290,7 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2938,20 +3322,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -2965,40 +3349,40 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
@@ -3007,7 +3391,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3017,7 +3401,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3027,7 +3411,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3037,7 +3421,7 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -3069,20 +3453,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3157,6 +3541,269 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3180,20 +3827,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3291,20 +3938,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3412,20 +4059,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3523,20 +4170,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3654,20 +4301,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3775,20 +4422,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -3876,20 +4523,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -27,13 +27,14 @@
     <sheet name="供应商档案" sheetId="20" r:id="rId18"/>
     <sheet name="仓库" sheetId="21" r:id="rId19"/>
     <sheet name="商品" sheetId="22" r:id="rId20"/>
+    <sheet name="商品计量单位" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="255">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,6 +1398,34 @@
   </si>
   <si>
     <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/UnitMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/UnitEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Goods/unitIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/GoodsUnitDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品计量单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1586,7 +1615,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,6 +1697,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1685,18 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1995,7 +2027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -2161,8 +2195,8 @@
       <c r="B21" s="13">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>115</v>
+      <c r="C21" s="16" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="24.95" customHeight="1">
@@ -2243,6 +2277,7 @@
     <hyperlink ref="C18" location="供应商档案!A1" display="供应商档案"/>
     <hyperlink ref="C19" location="仓库!A1" display="仓库"/>
     <hyperlink ref="C20" location="商品!A1" display="商品"/>
+    <hyperlink ref="C21" location="商品计量单位!A1" display="商品计量单位"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2265,20 +2300,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2376,20 +2411,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2487,20 +2522,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2598,20 +2633,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2709,20 +2744,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2808,20 +2843,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2929,20 +2964,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3050,20 +3085,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3191,20 +3226,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3322,20 +3357,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3453,20 +3488,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3564,20 +3599,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -3770,8 +3805,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="2" t="s">
         <v>225</v>
       </c>
@@ -3780,8 +3815,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="2" t="s">
         <v>226</v>
       </c>
@@ -3790,14 +3825,125 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>246</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3827,20 +3973,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3938,20 +4084,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4059,20 +4205,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4170,20 +4316,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4301,20 +4447,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4422,20 +4568,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -4523,20 +4669,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -28,13 +28,14 @@
     <sheet name="仓库" sheetId="21" r:id="rId19"/>
     <sheet name="商品" sheetId="22" r:id="rId20"/>
     <sheet name="商品计量单位" sheetId="23" r:id="rId21"/>
+    <sheet name="商品品牌" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="263">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,6 +1427,38 @@
   </si>
   <si>
     <t>商品计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/BrandMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/BrandEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/ParentBrandEditor.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建或编辑商品品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品牌字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级商品品牌字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Goods/brandIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/GoodsBrandDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1615,7 +1648,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1711,6 +1744,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2027,9 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -2203,7 +2237,7 @@
       <c r="B22" s="13">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2278,6 +2312,7 @@
     <hyperlink ref="C19" location="仓库!A1" display="仓库"/>
     <hyperlink ref="C20" location="商品!A1" display="商品"/>
     <hyperlink ref="C21" location="商品计量单位!A1" display="商品计量单位"/>
+    <hyperlink ref="C22" location="商品品牌!A1" display="商品品牌"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2300,20 +2335,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2411,20 +2446,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2522,20 +2557,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2633,20 +2668,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2744,20 +2779,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2843,20 +2878,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2964,20 +2999,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3085,20 +3120,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3226,20 +3261,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3357,20 +3392,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3488,20 +3523,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3599,20 +3634,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -3862,20 +3897,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
@@ -3944,6 +3979,137 @@
         <v>253</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3973,20 +4139,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4084,20 +4250,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4205,20 +4371,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4316,20 +4482,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4447,20 +4613,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4568,20 +4734,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -4669,20 +4835,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -29,13 +29,14 @@
     <sheet name="商品" sheetId="22" r:id="rId20"/>
     <sheet name="商品计量单位" sheetId="23" r:id="rId21"/>
     <sheet name="商品品牌" sheetId="24" r:id="rId22"/>
+    <sheet name="价格体系" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="268">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,6 +1460,26 @@
   </si>
   <si>
     <t>/PSI/web/Application/Home/DAO/GoodsBrandDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/PriceSystemMainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Goods/PriceSystemEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑价格体系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Goods/psIndex.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PriceSystemDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1669,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,6 +1765,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2245,7 +2269,7 @@
       <c r="B23" s="13">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="16" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2313,6 +2337,7 @@
     <hyperlink ref="C20" location="商品!A1" display="商品"/>
     <hyperlink ref="C21" location="商品计量单位!A1" display="商品计量单位"/>
     <hyperlink ref="C22" location="商品品牌!A1" display="商品品牌"/>
+    <hyperlink ref="C23" location="价格体系!A1" display="价格体系"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2335,20 +2360,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2446,20 +2471,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2557,20 +2582,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2668,20 +2693,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2779,20 +2804,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2878,20 +2903,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -2999,20 +3024,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3120,20 +3145,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3261,20 +3286,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3392,20 +3417,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3523,20 +3548,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3634,20 +3659,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -3897,20 +3922,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
@@ -4008,20 +4033,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="32" t="s">
         <v>83</v>
       </c>
@@ -4110,6 +4135,117 @@
         <v>262</v>
       </c>
       <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4139,20 +4275,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4250,20 +4386,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4371,20 +4507,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4482,20 +4618,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4613,20 +4749,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4734,20 +4870,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -4835,20 +4971,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -30,13 +30,14 @@
     <sheet name="商品计量单位" sheetId="23" r:id="rId21"/>
     <sheet name="商品品牌" sheetId="24" r:id="rId22"/>
     <sheet name="价格体系" sheetId="25" r:id="rId23"/>
+    <sheet name="用户管理" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="291">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1480,6 +1481,98 @@
   </si>
   <si>
     <t>/PSI/web/Application/Home/DAO/PriceSystemDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/OrgEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/UserEditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/ChangeUserPasswordForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/OrgEditor.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/OrgField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/OrgWithDataOrgField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/ParentOrgEditor.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/SelectUserDataOrg.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/UserField.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择组织机构字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构字段,用数据域过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级组织机构字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择用户数据域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/User/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/UserController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/UserService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/UserDAO.class.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1762,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,6 +1858,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2277,7 +2373,7 @@
       <c r="B24" s="13">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2338,6 +2434,7 @@
     <hyperlink ref="C21" location="商品计量单位!A1" display="商品计量单位"/>
     <hyperlink ref="C22" location="商品品牌!A1" display="商品品牌"/>
     <hyperlink ref="C23" location="价格体系!A1" display="价格体系"/>
+    <hyperlink ref="C24" location="用户管理!A1" display="用户管理"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2360,20 +2457,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2471,20 +2568,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2582,20 +2679,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2693,20 +2790,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2804,20 +2901,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2903,20 +3000,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3024,20 +3121,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3145,20 +3242,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3286,20 +3383,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3417,20 +3514,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3548,20 +3645,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3659,20 +3756,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -3922,20 +4019,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
@@ -4033,20 +4130,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="32" t="s">
         <v>83</v>
       </c>
@@ -4164,20 +4261,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="33" t="s">
         <v>83</v>
       </c>
@@ -4246,6 +4343,197 @@
         <v>267</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4275,20 +4563,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4386,20 +4674,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4507,20 +4795,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4618,20 +4906,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4749,20 +5037,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4870,20 +5158,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -4971,20 +5259,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -31,13 +31,15 @@
     <sheet name="商品品牌" sheetId="24" r:id="rId22"/>
     <sheet name="价格体系" sheetId="25" r:id="rId23"/>
     <sheet name="用户管理" sheetId="26" r:id="rId24"/>
+    <sheet name="权限管理" sheetId="27" r:id="rId25"/>
+    <sheet name="业务日志" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="311">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1573,6 +1575,86 @@
   </si>
   <si>
     <t>/PSI/web/Application/Home/DAO/UserDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Permission/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Permission/EditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Permission/SelectPermissionForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Permission/SelectDataOrgForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Permission/SelectUserForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择权限项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择数据域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Permission/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/PermissionController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/PermissionService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/PermissionDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/Bizlog/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/Bizlog/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/BizlogController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/BizlogService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/BizlogDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,7 +1844,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1858,6 +1940,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2381,7 +2466,7 @@
       <c r="B25" s="13">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2389,8 +2474,8 @@
       <c r="B26" s="13">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>120</v>
+      <c r="C26" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="24.95" customHeight="1">
@@ -2435,6 +2520,8 @@
     <hyperlink ref="C22" location="商品品牌!A1" display="商品品牌"/>
     <hyperlink ref="C23" location="价格体系!A1" display="价格体系"/>
     <hyperlink ref="C24" location="用户管理!A1" display="用户管理"/>
+    <hyperlink ref="C25" location="权限管理!A1" display="权限管理"/>
+    <hyperlink ref="C26" location="业务日志!A1" display="业务日志"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2457,20 +2544,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2568,20 +2655,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2679,20 +2766,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2790,20 +2877,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2901,20 +2988,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -3000,20 +3087,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3121,20 +3208,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3242,20 +3329,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3383,20 +3470,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3514,20 +3601,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3645,20 +3732,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3756,20 +3843,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -4019,20 +4106,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
@@ -4130,20 +4217,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="32" t="s">
         <v>83</v>
       </c>
@@ -4261,20 +4348,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="33" t="s">
         <v>83</v>
       </c>
@@ -4372,20 +4459,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="34" t="s">
         <v>83</v>
       </c>
@@ -4534,6 +4621,248 @@
         <v>290</v>
       </c>
       <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4563,20 +4892,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4674,20 +5003,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4795,20 +5124,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4906,20 +5235,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5037,20 +5366,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5158,20 +5487,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -5259,20 +5588,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -33,13 +33,14 @@
     <sheet name="用户管理" sheetId="26" r:id="rId24"/>
     <sheet name="权限管理" sheetId="27" r:id="rId25"/>
     <sheet name="业务日志" sheetId="28" r:id="rId26"/>
+    <sheet name="业务设置" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="319">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1655,6 +1656,38 @@
   </si>
   <si>
     <t>业务日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/BizConfig/MainForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/BizConfig/EditForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/BizConfig/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Controller/BizConfigController.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/Service/BizConfigService.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/DAO/BizConfigDAO.class.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1844,7 +1877,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2482,8 +2518,8 @@
       <c r="B27" s="13">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>121</v>
+      <c r="C27" s="16" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="24.95" customHeight="1">
@@ -2522,6 +2558,7 @@
     <hyperlink ref="C24" location="用户管理!A1" display="用户管理"/>
     <hyperlink ref="C25" location="权限管理!A1" display="权限管理"/>
     <hyperlink ref="C26" location="业务日志!A1" display="业务日志"/>
+    <hyperlink ref="C27" location="业务设置!A1" display="业务设置"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2544,20 +2581,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2655,20 +2692,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2766,20 +2803,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2877,20 +2914,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -2988,20 +3025,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -3087,20 +3124,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3208,20 +3245,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3329,20 +3366,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3470,20 +3507,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3601,20 +3638,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3732,20 +3769,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3843,20 +3880,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -4106,20 +4143,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
@@ -4217,20 +4254,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="32" t="s">
         <v>83</v>
       </c>
@@ -4348,20 +4385,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="33" t="s">
         <v>83</v>
       </c>
@@ -4459,20 +4496,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="34" t="s">
         <v>83</v>
       </c>
@@ -4650,20 +4687,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="35" t="s">
         <v>83</v>
       </c>
@@ -4791,20 +4828,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="35" t="s">
         <v>83</v>
       </c>
@@ -4863,6 +4900,117 @@
         <v>309</v>
       </c>
       <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4892,20 +5040,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5003,20 +5151,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5124,20 +5272,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5235,20 +5383,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5366,20 +5514,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5487,20 +5635,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -5588,20 +5736,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>

--- a/doc/03 详细设计/代码索引.xlsx
+++ b/doc/03 详细设计/代码索引.xlsx
@@ -34,13 +34,14 @@
     <sheet name="权限管理" sheetId="27" r:id="rId25"/>
     <sheet name="业务日志" sheetId="28" r:id="rId26"/>
     <sheet name="业务设置" sheetId="29" r:id="rId27"/>
+    <sheet name="修改我的密码" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="322">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1688,6 +1689,18 @@
   </si>
   <si>
     <t>业务设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Public/Scripts/PSI/User/ChangeMyPasswordForm.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PSI/web/Application/Home/View/User/changeMyPassword.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改我的密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1877,7 +1890,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1973,6 +1986,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2526,8 +2542,8 @@
       <c r="B28" s="13">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>122</v>
+      <c r="C28" s="16" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2559,6 +2575,7 @@
     <hyperlink ref="C25" location="权限管理!A1" display="权限管理"/>
     <hyperlink ref="C26" location="业务日志!A1" display="业务日志"/>
     <hyperlink ref="C27" location="业务设置!A1" display="业务设置"/>
+    <hyperlink ref="C28" location="修改我的密码!A1" display="修改我的密码"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2581,20 +2598,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -2692,20 +2709,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2803,20 +2820,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
@@ -2914,20 +2931,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -3025,20 +3042,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="21" t="s">
         <v>83</v>
       </c>
@@ -3124,20 +3141,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3245,20 +3262,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="22" t="s">
         <v>83</v>
       </c>
@@ -3366,20 +3383,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="23" t="s">
         <v>83</v>
       </c>
@@ -3507,20 +3524,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="24" t="s">
         <v>83</v>
       </c>
@@ -3638,20 +3655,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="25" t="s">
         <v>83</v>
       </c>
@@ -3769,20 +3786,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -3880,20 +3897,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="26" t="s">
         <v>83</v>
       </c>
@@ -4143,20 +4160,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
@@ -4254,20 +4271,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="32" t="s">
         <v>83</v>
       </c>
@@ -4385,20 +4402,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="33" t="s">
         <v>83</v>
       </c>
@@ -4496,20 +4513,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="34" t="s">
         <v>83</v>
       </c>
@@ -4687,20 +4704,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="35" t="s">
         <v>83</v>
       </c>
@@ -4828,20 +4845,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="35" t="s">
         <v>83</v>
       </c>
@@ -4929,20 +4946,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="36" t="s">
         <v>83</v>
       </c>
@@ -5011,6 +5028,107 @@
         <v>317</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="45" customHeight="1">
+      <c r="B2" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1">
+      <c r="B3" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5040,20 +5158,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5151,20 +5269,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5272,20 +5390,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5383,20 +5501,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5514,20 +5632,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
@@ -5635,20 +5753,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
@@ -5736,20 +5854,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="45" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
